--- a/data/trans_dic/P25A_12_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_12_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos de ansiedad</t>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,36</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 10,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,68</t>
+          <t>0,0; 12,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,52</t>
+          <t>4,15; 23,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,71</t>
+          <t>1,8; 17,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 9,68</t>
+          <t>6,78; 26,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,71</t>
+          <t>1,02; 9,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 12,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,84</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 13,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5,5%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,26%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,91</t>
+          <t>1,42; 15,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 11,12</t>
+          <t>1,14; 17,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,51</t>
+          <t>1,39; 15,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 16,41</t>
+          <t>0,48; 14,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 14,18</t>
+          <t>0,0; 15,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,79</t>
+          <t>1,76; 15,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,44</t>
+          <t>0,0; 10,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,72</t>
+          <t>4,69; 21,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,64</t>
+          <t>1,99; 13,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 13,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 10,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 13,5</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,35</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 10,76</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 16,05</t>
+          <t>2,93; 13,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,67</t>
+          <t>4,69; 16,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,6</t>
+          <t>3,72; 13,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,16</t>
+          <t>3,49; 14,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,0</t>
+          <t>1,82; 8,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 10,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 8,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 10,26</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,95</t>
+          <t>1,2; 10,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 8,75</t>
+          <t>1,22; 10,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,57</t>
+          <t>2,52; 13,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 14,55</t>
+          <t>4,94; 18,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,23</t>
+          <t>6,85; 19,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,82</t>
+          <t>5,88; 18,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,93</t>
+          <t>5,67; 17,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,49</t>
+          <t>8,98; 23,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,47</t>
+          <t>4,96; 12,8</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 12,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 12,67</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 18,15</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,63%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,63</t>
+          <t>2,39; 15,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,87</t>
+          <t>1,18; 10,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,82</t>
+          <t>1,42; 12,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,23</t>
+          <t>2,72; 15,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 16,25</t>
+          <t>1,83; 16,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 16,47</t>
+          <t>1,88; 17,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,06</t>
+          <t>5,49; 23,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,23</t>
+          <t>5,06; 23,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,45</t>
+          <t>3,44; 13,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 10,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 14,69</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 16,1</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 18,92</t>
+          <t>1,98; 18,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,96</t>
+          <t>0,0; 9,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 21,37</t>
+          <t>0,0; 19,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,18</t>
+          <t>0,0; 15,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 6,59</t>
+          <t>0,0; 14,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,57</t>
+          <t>0,0; 9,51</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,65</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 10,24</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 11,48</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>6,81%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,69%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,37</t>
+          <t>2,11; 6,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,91</t>
+          <t>1,46; 5,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,59</t>
+          <t>1,77; 5,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 9,07</t>
+          <t>3,13; 8,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,93</t>
+          <t>4,83; 9,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,31</t>
+          <t>6,39; 12,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,24</t>
+          <t>5,15; 10,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,83</t>
+          <t>7,31; 13,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,77</t>
+          <t>3,96; 7,47</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 7,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 7,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 9,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos de ansiedad (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5368</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12687</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20611</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8662</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12687</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20611</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17136</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4868; 27162</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2200; 21625</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9861; 38516</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2467; 23057</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4894; 27514</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2205; 22099</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8670; 40646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9387</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8542</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7955</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11048</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8800</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17288</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18353</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17342</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12266</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>28336</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2404; 26688</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1598; 24048</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2145; 23276</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1092; 33966</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 25725</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2236; 19690</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13888</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7619; 35204</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6650; 43984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7009; 35755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4274; 29608</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12190; 52640</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2376</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18260</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19768</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18280</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18260</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22144</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21824</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11859</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19604</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7734; 34878</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9815; 33507</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7381; 27715</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8287; 34026</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7775; 37005</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11264; 36747</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7440; 29180</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11802; 42869</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9860</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20128</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26006</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20635</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17176</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33046</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33169</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26855</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27036</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53173</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2235; 18919</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1964; 16843</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3934; 21737</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9955; 36690</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14793; 42482</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10925; 34137</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9779; 29429</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>19095; 51046</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19974; 51567</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15191; 42222</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16329; 41634</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33926; 75149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11210</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5121</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6763</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10923</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8319</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16829</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19529</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11961</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18625</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27752</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3765; 24262</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1559; 13585</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1746; 15304</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4136; 24064</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2086; 18656</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1696; 15449</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5084; 21478</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6939; 32546</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9318; 35930</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5077; 23517</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9851; 31703</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15463; 46538</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9707</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5023</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6192</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6702</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5087</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7840</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15899</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12544</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2733; 25683</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13294</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 20412</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16851</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 30158</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 23470</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18570</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1711; 20553</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3717; 39651</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>34522</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22258</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27394</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>55349</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>70154</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>73818</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>62169</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>112245</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>104676</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>89563</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>167594</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18780; 58655</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>11138; 40952</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>13962; 46267</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>32756; 86348</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>49767; 101879</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53374; 101038</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42348; 84701</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>80616; 148975</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>76013; 143604</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>71299; 124911</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>67620; 117922</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>127518; 212498</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>